--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544965</v>
+        <v>577357.7000544966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514376</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183962</v>
+        <v>5475808.405183963</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
@@ -725,7 +725,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -896,73 +896,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>132.6009592528877</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>22.0339917726843</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.77286532336496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>157.9784691189487</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>197.7733550620193</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
-        <v>22.0339917726843</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,10 +1567,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,31 +1604,31 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3360962888296</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>3.833957768458675</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>23.81301614990497</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1938,13 +1938,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>181.2921930499176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>15.83810168125762</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>146.9140566787055</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,64 +2324,64 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>16.96387200453818</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>98.22847700514936</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2634,19 +2634,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>70.84795259427446</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>145.9272112248127</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>84.4730545048111</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,55 +2947,55 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3035,67 +3035,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.31192385075794</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3162,13 +3162,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,73 +3263,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>241.0142888776591</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>26.98580820205339</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G38" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,14 +3554,14 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>158.187398751566</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,73 +3740,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>164.4530035161876</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="45">
@@ -4056,19 +4056,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>122.3079715109942</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4138,58 +4138,58 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4364,16 +4364,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4413,13 +4413,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>730.8505943024719</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4610,7 +4610,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.9530410142718</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>243.9530410142718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D11" t="n">
-        <v>243.9530410142718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E11" t="n">
-        <v>243.9530410142718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F11" t="n">
-        <v>243.9530410142718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G11" t="n">
-        <v>243.9530410142718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X11" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.9530410142718</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5121,22 +5121,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5145,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>529.8960702829295</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>529.8960702829295</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>529.8960702829295</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W12" t="n">
-        <v>529.8960702829295</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>529.8960702829295</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>529.8960702829295</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
         <v>41.77557929797318</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C14" t="n">
-        <v>477.1596022224361</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D14" t="n">
-        <v>477.1596022224361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F14" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G14" t="n">
-        <v>233.7108255783361</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>23.90796037760316</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D15" t="n">
-        <v>23.90796037760316</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E15" t="n">
-        <v>23.90796037760316</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F15" t="n">
-        <v>23.90796037760316</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G15" t="n">
-        <v>23.90796037760316</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H15" t="n">
-        <v>23.90796037760316</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,43 +5364,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>718.7806050553886</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U17" t="n">
-        <v>718.7806050553886</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>612.718391167419</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C18" t="n">
-        <v>612.718391167419</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D18" t="n">
-        <v>463.7839815061678</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5607,37 +5607,37 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.9337281874871</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="19">
@@ -5707,10 +5707,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>613.4725238202047</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C21" t="n">
-        <v>613.4725238202047</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="D21" t="n">
-        <v>464.5381141589534</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="E21" t="n">
-        <v>305.3006591534979</v>
+        <v>386.2366809776985</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>239.7021230045835</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5835,10 +5835,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>613.4725238202047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>613.4725238202047</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>613.4725238202047</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>613.4725238202047</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y21" t="n">
-        <v>613.4725238202047</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.0119685275972</v>
+        <v>210.869396638348</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>36.41636735722099</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>36.41636735722099</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>36.41636735722099</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>36.41636735722099</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6069,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>864.836471667051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>636.61285340344</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>401.4607451716973</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W24" t="n">
-        <v>158.0119685275972</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X24" t="n">
-        <v>158.0119685275972</v>
+        <v>210.869396638348</v>
       </c>
       <c r="Y24" t="n">
-        <v>158.0119685275972</v>
+        <v>210.869396638348</v>
       </c>
     </row>
     <row r="25">
@@ -6175,7 +6175,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.84473158927784</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C27" t="n">
-        <v>90.84473158927784</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D27" t="n">
-        <v>90.84473158927784</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E27" t="n">
-        <v>90.84473158927784</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F27" t="n">
-        <v>90.84473158927784</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,13 +6306,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>259.0600686093459</v>
+        <v>816.6559320512295</v>
       </c>
       <c r="Y27" t="n">
-        <v>259.0600686093459</v>
+        <v>816.6559320512295</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>279.0604900729671</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>104.6074607918401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>104.6074607918401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>104.6074607918401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>104.6074607918401</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X30" t="n">
-        <v>655.0361258579891</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>447.2758270930352</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6734,16 +6734,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>112.5255106362308</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>259.0600686093459</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W33" t="n">
-        <v>259.0600686093459</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X33" t="n">
-        <v>259.0600686093459</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y33" t="n">
-        <v>259.0600686093459</v>
+        <v>109.8523314442283</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6889,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="C35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="D35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="G35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>46.53953523349898</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>46.53953523349898</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>46.53953523349898</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7132,7 +7132,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
         <v>829.5248650203655</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>241.7186438601369</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.7186438601369</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>352.9716273967953</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7263,13 +7263,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7287,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>352.9716273967953</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7491,19 +7491,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7521,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="43">
@@ -7591,7 +7591,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
         <v>19.28114311021272</v>
@@ -7625,16 +7625,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="T44" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U44" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V44" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W44" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X44" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y44" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="T44" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="U44" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="V44" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="W44" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="X44" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>464.5381141589534</v>
+        <v>142.4461484402802</v>
       </c>
       <c r="C45" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>464.5381141589534</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>964.0571555106362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X45" t="n">
-        <v>840.5137499439754</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y45" t="n">
-        <v>632.7534511790215</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>233.6791982203443</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,16 +8778,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,13 +9255,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>312.5053919605859</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,10 +10677,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10911,16 +10911,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>197.6503338623806</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11154,7 +11154,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -22547,10 +22547,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22568,7 +22568,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>127.4161621813053</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
@@ -22613,7 +22613,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22626,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>60.3442152127903</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22680,16 +22680,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22784,16 +22784,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>123.8085460246003</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22802,10 +22802,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>39.08221185095007</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23097,31 +23097,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,22 +23145,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,10 +23218,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.4650733326886</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23385,25 +23385,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>42.18625957587292</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>35.02723208740596</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,10 +23455,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23492,31 +23492,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23549,7 +23549,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>85.5626750829564</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23619,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>199.2828334142264</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,13 +23808,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23826,13 +23826,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23856,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>24.39050272738672</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23947,13 +23947,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>121.505415481953</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,13 +24099,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>79.02732540226935</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24260,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24297,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>120.3796451586724</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>101.9362516896722</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24497,7 +24497,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24522,19 +24522,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>66.49556456893617</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24585,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>59.84577397866479</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,7 +24771,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>52.87046265839953</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24923,22 +24923,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24974,16 +24974,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>76.86770719919193</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,10 +25005,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>45.0315933124527</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25050,13 +25050,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>145.2236497783945</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25248,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>85.24963603444307</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25287,19 +25287,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25372,10 +25372,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25400,16 +25400,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G38" t="n">
-        <v>195.0896117727101</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,13 +25442,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25527,7 +25527,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>47.49529702573832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25594,13 +25594,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,19 +25628,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>8.255495472128104</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25761,19 +25761,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,10 +25831,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="45">
@@ -25944,19 +25944,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>50.77514371154891</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,7 +25995,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>83.4650136924833</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="C2" t="n">
         <v>108004.437145366</v>
@@ -26326,7 +26326,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764731</v>
+        <v>-21225.79564764735</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390039</v>
+        <v>59543.63588390041</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390039</v>
+        <v>59543.63588390041</v>
       </c>
       <c r="E6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="G6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="H6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="I6" t="n">
+        <v>93171.23588390039</v>
+      </c>
+      <c r="J6" t="n">
+        <v>30111.29328479416</v>
+      </c>
+      <c r="K6" t="n">
         <v>93171.2358839004</v>
-      </c>
-      <c r="F6" t="n">
-        <v>93171.2358839004</v>
-      </c>
-      <c r="G6" t="n">
-        <v>93171.23588390042</v>
-      </c>
-      <c r="H6" t="n">
-        <v>93171.23588390037</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93171.2358839004</v>
-      </c>
-      <c r="J6" t="n">
-        <v>30111.29328479415</v>
-      </c>
-      <c r="K6" t="n">
-        <v>93171.23588390039</v>
       </c>
       <c r="L6" t="n">
         <v>93171.23588390039</v>
       </c>
       <c r="M6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="N6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="O6" t="n">
         <v>93171.2358839004</v>
@@ -34708,7 +34708,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,16 +34781,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91.0829537758999</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34942,10 +34942,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35419,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35498,16 +35498,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>169.9091475161414</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,10 +37397,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37631,16 +37631,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37874,7 +37874,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514376</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183963</v>
+        <v>5475808.405183962</v>
       </c>
     </row>
     <row r="11">
@@ -656,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T2" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>31.69844046683744</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>132.6009592528877</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.809496073036188</v>
+        <v>130.9180362598743</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>14.59515906968671</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1272,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="I11" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,10 +1417,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1449,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>197.7733550620193</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1859,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0507685937734</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1944,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,13 +1976,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>35.74905915623028</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15.83810168125762</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2290,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2324,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>16.96387200453818</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,25 +2636,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.88648998492427</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,52 +2806,52 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.66547645067541</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3159,13 +3161,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>150.4149128677507</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>26.98580820205339</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>157.1746589509483</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>47.50281385232029</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>164.4530035161876</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3980,70 +3982,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>121.9333552767668</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X2" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y2" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>352.9716273967953</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C6" t="n">
-        <v>178.5185981156682</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,46 +4652,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>728.9472631818171</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>728.9472631818171</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>728.9472631818171</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9472631818171</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>728.9472631818171</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>728.9472631818171</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>521.1869644168632</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="G8" t="n">
-        <v>233.7108255783361</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4890,43 +4892,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C11" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D11" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E11" t="n">
-        <v>467.067986854209</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F11" t="n">
-        <v>467.067986854209</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G11" t="n">
-        <v>467.067986854209</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H11" t="n">
-        <v>223.6192102101089</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5065,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y11" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5127,7 +5129,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5196,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>962.2293816994886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C14" t="n">
-        <v>962.2293816994886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D14" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E14" t="n">
-        <v>718.7806050553886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F14" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>962.2293816994886</v>
+        <v>941.9819777229218</v>
       </c>
       <c r="S14" t="n">
-        <v>962.2293816994886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T14" t="n">
-        <v>962.2293816994886</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U14" t="n">
-        <v>962.2293816994886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V14" t="n">
-        <v>962.2293816994886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W14" t="n">
-        <v>962.2293816994886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X14" t="n">
-        <v>962.2293816994886</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y14" t="n">
-        <v>962.2293816994886</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,10 +5366,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5428,13 +5430,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>941.9819777229218</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T17" t="n">
-        <v>376.1934816808115</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U17" t="n">
-        <v>132.7447050367114</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5622,22 +5624,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>222.9499078454769</v>
       </c>
     </row>
     <row r="19">
@@ -5707,10 +5709,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>560.6897102588255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>386.2366809776985</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>239.7021230045835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W21" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X21" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>728.9050472788936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>210.869396638348</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>36.41636735722099</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>36.41636735722099</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>36.41636735722099</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>36.41636735722099</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>210.869396638348</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>210.869396638348</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>210.869396638348</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6177,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6245,25 +6247,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
         <v>749.627473042513</v>
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>648.4405950311615</v>
+        <v>466.4486707798429</v>
       </c>
       <c r="C27" t="n">
-        <v>473.9875657500345</v>
+        <v>466.4486707798429</v>
       </c>
       <c r="D27" t="n">
-        <v>325.0531560887832</v>
+        <v>466.4486707798429</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>466.4486707798429</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>319.9141128067279</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>181.1832873893434</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X27" t="n">
-        <v>816.6559320512295</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="Y27" t="n">
-        <v>816.6559320512295</v>
+        <v>634.6640077999109</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C29" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D29" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E29" t="n">
-        <v>962.2293816994886</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>962.2293816994886</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V29" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W29" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X29" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y29" t="n">
-        <v>962.2293816994886</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>109.8523314442283</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6730,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V33" t="n">
-        <v>353.3011080883284</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W33" t="n">
-        <v>109.8523314442283</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X33" t="n">
-        <v>109.8523314442283</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y33" t="n">
-        <v>109.8523314442283</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021275</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021275</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K35" t="n">
         <v>122.2961490211351</v>
@@ -6971,16 +6973,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>46.53953523349898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>46.53953523349898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>46.53953523349898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F38" t="n">
-        <v>718.7806050553886</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>511.7666217610367</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>352.5291667555812</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>205.9946087824662</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>67.26378336508171</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>223.6192102101089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>344.6327430815143</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,16 +7499,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7521,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X42" t="n">
-        <v>720.6083788665362</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y42" t="n">
-        <v>512.8480801015824</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7685,13 +7687,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.4461484402802</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7755,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X45" t="n">
-        <v>518.4217842253022</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.6614854603483</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7837,7 +7839,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
         <v>19.28114311021272</v>
@@ -8061,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8540,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9012,13 +9014,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>231.1529892133073</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,19 +9245,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9483,19 +9485,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>255.5148970497678</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22595,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22644,10 +22646,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>60.3442152127903</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>201.1021466825878</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22784,16 +22786,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>303.8671480099096</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22802,10 +22804,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>39.08221185095007</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>337.6653060427309</v>
+        <v>208.5567658558928</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,13 +23068,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23115,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>97.64028516680975</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23160,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>236.4659043839653</v>
       </c>
       <c r="I11" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23337,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,19 +23393,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>35.02723208740596</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>128.0146919313124</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23732,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23747,13 +23749,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,16 +23816,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>126.3942969708654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,13 +23864,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>197.051527993195</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23947,13 +23949,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,16 +24025,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>198.920084420089</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>121.505415481953</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24178,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24187,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24212,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24297,7 +24299,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>120.3796451586724</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24497,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,25 +24524,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>41.3489542515722</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,7 +24578,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,7 +24587,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>59.84577397866479</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,16 +24694,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24737,7 +24739,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>143.5657919235178</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>116.1075087528021</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24923,22 +24925,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76.86770719919193</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25047,13 +25049,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>49.7498158270709</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>85.24963603444307</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25284,7 +25286,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,7 +25295,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>94.52032420997128</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,31 +25390,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>182.3977453746509</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>116.4754883813142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>64.73263038417618</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25628,7 +25630,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>148.9048724285834</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>8.255495472128104</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,16 +25763,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>154.3469453318534</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>50.77514371154891</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,19 +25997,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
         <v>108004.437145366</v>
@@ -26344,10 +26346,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764735</v>
+        <v>-21225.79564764731</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390041</v>
+        <v>59543.63588390045</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.63588390041</v>
+        <v>59543.6358839004</v>
       </c>
       <c r="E6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="F6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="G6" t="n">
         <v>93171.23588390039</v>
       </c>
       <c r="H6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="I6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="J6" t="n">
         <v>30111.29328479416</v>
       </c>
       <c r="K6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="L6" t="n">
         <v>93171.2358839004</v>
       </c>
-      <c r="L6" t="n">
-        <v>93171.23588390039</v>
-      </c>
       <c r="M6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="N6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="O6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="P6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.2358839004</v>
       </c>
     </row>
   </sheetData>
@@ -34705,10 +34707,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34942,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35018,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35260,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35732,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>99.81127712997396</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36203,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
       <c r="P36" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>113.3808631277495</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
